--- a/Sprint_nº4.xlsx
+++ b/Sprint_nº4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/ProjetoBck2/Ficheiros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/ProjetoBck/DriveFood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{7FE97FA0-B326-431B-98B0-5088247D5AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7DFC2CC-26BD-496E-B544-3D968CCA84E7}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{7FE97FA0-B326-431B-98B0-5088247D5AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8502A813-5D1C-465C-868C-8DF9A38B7A9F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0F42C43-FE4D-408D-A02D-B9A126DAE2C4}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A5:XFD5 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,5 +1133,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>